--- a/examples/example-batch/batch.xlsx
+++ b/examples/example-batch/batch.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DAJIN2-experiments\DAJIN2\examples\example-batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{363007FE-EEF7-4C93-A1A5-3B96B9A7FBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02066FA1-4C05-422A-A2EF-12102A85B585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18930" yWindow="5070" windowWidth="31580" windowHeight="14020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="batch" sheetId="1" r:id="rId1"/>
@@ -25,44 +25,44 @@
     <t>name</t>
   </si>
   <si>
+    <t>control</t>
+  </si>
+  <si>
     <t>sample</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
     <t>allele</t>
   </si>
   <si>
     <t>genome</t>
   </si>
   <si>
-    <t>batch</t>
+    <t>tyr-substitution</t>
+  </si>
+  <si>
+    <t>example-batch/tyr_control.fq.gz</t>
+  </si>
+  <si>
+    <t>example-batch/tyr_control.fasta</t>
   </si>
   <si>
     <t>mm39</t>
+  </si>
+  <si>
+    <t>example-batch/tyr_c230gt_50%.fq.gz</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>example-batch/tyr_control.fq.gz</t>
-  </si>
-  <si>
-    <t>example-batch/tyr.fa</t>
-  </si>
-  <si>
-    <t>example-batch/tyr_c140gc_50.fq.gz</t>
-  </si>
-  <si>
-    <t>example-batch/tyr_c140gc_01.fq.gz</t>
-  </si>
-  <si>
-    <t>example-batch/tyr_c140gc_10.fq.gz</t>
+    <t>example-batch/tyr_c230gt_10%.fq.gz</t>
+  </si>
+  <si>
+    <t>example-batch/tyr_c230gt_01%.fq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -989,20 +989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1026,16 +1020,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1043,16 +1037,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1060,16 +1054,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
